--- a/变更申请表.xlsx
+++ b/变更申请表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B403A4D-4036-4437-80B0-96EA575687F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06872BD8-156E-4D16-91D2-ED05C7E00B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在数据传输过程中，增加对数据质量的校验。原来的代码中并没有对数据质量进行校验，这可能会导致一些错误数据被传输到数据库中。对数据传输的代码进行优化。除此之外，原来的代码中存在一些性能瓶颈，导致数据传输的速度较慢。我们将对代码进行优化，以提高数据传输的速度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变更对进度的影响（天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>在本次任务中，技术人员修改了数据传输的函数代码，使数据传输更加的高效和安全。对于修改后的代码，具有较好的可读性和可维护性，也具有不错的兼容性和稳定性，提高了数据传输的正确性和质量，保证了数据的完整和准确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据传输过程中，增加对数据质量的校验。原来的代码中并没有对数据质量进行校验，这可能会导致一些错误数据被传输到数据库中，因此需要对数据传输的代码进行优化，检查数据的质量。除此之外，原来的代码中存在一些性能瓶颈，导致数据传输的速度较慢。我们将对代码进行优化，以提高数据传输的速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,17 +248,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,11 +557,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -574,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>45080</v>
       </c>
     </row>
@@ -595,234 +595,246 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="3">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4">
-        <v>45081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4">
-        <v>45081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>45092</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
@@ -832,18 +844,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
